--- a/src/main/resources/modules/sampleTest.xlsx
+++ b/src/main/resources/modules/sampleTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\temp\seleniumAmtTesting\src\main\resources\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6C03E5-1315-4441-9E7B-EC320AFAFD2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128B9586-2255-48CF-B603-17B6A7828043}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>Action</t>
   </si>
@@ -692,21 +691,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Controller"/>
-      <sheetName val="TC001_TC050"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1704,7 +1688,7 @@
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,7 +1700,7 @@
     <col min="5" max="5" width="40.7109375" style="10" customWidth="1"/>
     <col min="6" max="6" width="56.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="10" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="10"/>
   </cols>
@@ -1770,9 +1754,6 @@
         <v>13</v>
       </c>
       <c r="G2" s="24"/>
-      <c r="H2" s="21" t="s">
-        <v>2</v>
-      </c>
       <c r="I2" s="21" t="s">
         <v>2</v>
       </c>
@@ -1875,16 +1856,6 @@
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7EFE1014-D62F-45C5-8A5B-502D040C81B9}">
-          <x14:formula1>
-            <xm:f>'G:\nous\AMTDirect_NousAutomation\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
   </extLst>
 </worksheet>
 </file>